--- a/files for download/КТС.xlsx
+++ b/files for download/КТС.xlsx
@@ -1407,14 +1407,14 @@
     <row r="3" ht="21.7" customFormat="1" customHeight="1" s="1">
       <c r="A3" s="6" t="inlineStr">
         <is>
-          <t>Оптический линейный терминал MA5600T</t>
+          <t>Оптический линейный терминал (OLT) ZXA10 C300M</t>
         </is>
       </c>
     </row>
     <row r="4" ht="21.7" customFormat="1" customHeight="1" s="1">
       <c r="A4" s="7" t="inlineStr">
         <is>
-          <t>A5GM63-A000UL17</t>
+          <t>A5GM37-A000OL01</t>
         </is>
       </c>
       <c r="B4" s="30" t="n"/>
@@ -1470,7 +1470,7 @@
     <row r="8" ht="20.25" customHeight="1" s="29">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>000_УД-63_ул. Гомсельмаша 4А, , ip: 192.168.227.56</t>
+          <t>000_УД-37_ул. Димитрова 82, 2/4/1, ip: 192.168.204.3</t>
         </is>
       </c>
       <c r="B8" s="30" t="n"/>
@@ -1587,7 +1587,7 @@
       <c r="D15" s="16" t="n"/>
       <c r="E15" s="17" t="inlineStr">
         <is>
-          <t>Huawei</t>
+          <t>ZTE</t>
         </is>
       </c>
       <c r="F15" s="30" t="n"/>
@@ -1645,7 +1645,11 @@
       <c r="I18" s="16" t="n"/>
       <c r="J18" s="16" t="n"/>
       <c r="K18" s="16" t="n"/>
-      <c r="L18" s="22" t="inlineStr"/>
+      <c r="L18" s="22" t="inlineStr">
+        <is>
+          <t>2018 г.</t>
+        </is>
+      </c>
       <c r="M18" s="31" t="n"/>
     </row>
     <row r="19" s="29">
@@ -1691,7 +1695,7 @@
       <c r="F21" s="18" t="n"/>
       <c r="G21" s="17" t="inlineStr">
         <is>
-          <t>2102310QMCDMG7003946</t>
+          <t>201109653472</t>
         </is>
       </c>
       <c r="H21" s="30" t="n"/>
@@ -1749,7 +1753,7 @@
       <c r="K24" s="18" t="n"/>
       <c r="L24" s="17" t="inlineStr">
         <is>
-          <t>605113/605113</t>
+          <t>619792</t>
         </is>
       </c>
       <c r="M24" s="30" t="n"/>
@@ -1800,7 +1804,11 @@
       <c r="I27" s="16" t="n"/>
       <c r="J27" s="16" t="n"/>
       <c r="K27" s="18" t="n"/>
-      <c r="L27" s="23" t="inlineStr"/>
+      <c r="L27" s="23" t="inlineStr">
+        <is>
+          <t>30.03.2018</t>
+        </is>
+      </c>
       <c r="M27" s="30" t="n"/>
     </row>
     <row r="28" s="29">
@@ -1851,7 +1859,7 @@
       <c r="K30" s="18" t="n"/>
       <c r="L30" s="23" t="inlineStr">
         <is>
-          <t>03/11/2024</t>
+          <t>08/12/2024</t>
         </is>
       </c>
       <c r="M30" s="30" t="n"/>
